--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/excel-modelling-tools/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/python-table-data-reader/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5880B11-C5BC-A74A-B6B9-74435AB8F386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D423D85-9868-7242-A9AC-68CDAE8FA9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="4220" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="620" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>variable</t>
   </si>
@@ -165,6 +173,12 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>meters</t>
   </si>
 </sst>
 </file>
@@ -591,7 +605,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +711,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -723,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>12</v>
